--- a/Milestone3/ExcelSheets/Simulation_Block_Times.xlsx
+++ b/Milestone3/ExcelSheets/Simulation_Block_Times.xlsx
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14554.59179854628</v>
+        <v>692.3882058778627</v>
       </c>
       <c r="C2" t="n">
         <v>18000</v>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15129.51810406686</v>
+        <v>739.2177508788473</v>
       </c>
       <c r="C3" t="n">
         <v>18000</v>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14510.59453373516</v>
+        <v>581.1048506578318</v>
       </c>
       <c r="C4" t="n">
         <v>18000</v>
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14904.53006480693</v>
+        <v>515.6197010659225</v>
       </c>
       <c r="C5" t="n">
         <v>18000</v>
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13753.97102375549</v>
+        <v>1078.495749061472</v>
       </c>
       <c r="C6" t="n">
         <v>18000</v>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14224.8555415997</v>
+        <v>729.3635339894922</v>
       </c>
       <c r="C7" t="n">
         <v>18000</v>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14678.16656755948</v>
+        <v>334.525630594188</v>
       </c>
       <c r="C8" t="n">
         <v>18000</v>
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13949.94469881721</v>
+        <v>762.4778959926871</v>
       </c>
       <c r="C9" t="n">
         <v>18000</v>
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14033.78770989755</v>
+        <v>858.6207462335849</v>
       </c>
       <c r="C10" t="n">
         <v>18000</v>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14477.28151788458</v>
+        <v>649.9996623472146</v>
       </c>
       <c r="C11" t="n">
         <v>18000</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14421.72415606693</v>
+        <v>694.1813726699103</v>
       </c>
       <c r="C12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13">
@@ -581,36 +581,36 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.633284485331</v>
+        <v>189.379614687828</v>
       </c>
       <c r="C13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CI:+-293.469</t>
+          <t>CI:+-135.345</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14128.25491564373</v>
+        <v>558.8365436609035</v>
       </c>
       <c r="C14" t="n">
-        <v>14715.19339649012</v>
+        <v>829.526201678917</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PI:+-1064.702</t>
+          <t>PI:+-491.029</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13357.02205273945</v>
+        <v>203.1523165664958</v>
       </c>
       <c r="C15" t="n">
-        <v>15486.4262593944</v>
+        <v>1185.210428773325</v>
       </c>
     </row>
   </sheetData>
